--- a/TaiLieu/Menu OEE report.xlsx
+++ b/TaiLieu/Menu OEE report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01.SmarTrack\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17F73A-7DB9-490D-BE2C-2D5F44452C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595083D6-5796-406A-B3FD-17074BD50599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>MENU_ID</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>LoadThoiGianChayMay</t>
+  </si>
+  <si>
+    <t>mnuTargetMold</t>
+  </si>
+  <si>
+    <t>7.9 Định mức khuông</t>
+  </si>
+  <si>
+    <t>7.9 Target Mold</t>
+  </si>
+  <si>
+    <t>LoadTargetMold</t>
   </si>
 </sst>
 </file>
@@ -310,8 +322,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,6 +1462,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1456,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AC5574-95DC-445E-B85C-4AE500AD5363}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="G22:H23"/>
     </sheetView>
   </sheetViews>
